--- a/ComputedResults/Area/SixBorderVowels/Norwagian/Formant/Father/6_bordervowels_formant_no_ADS_F.xlsx
+++ b/ComputedResults/Area/SixBorderVowels/Norwagian/Formant/Father/6_bordervowels_formant_no_ADS_F.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,2094 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FADS101</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>88220</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FADS102</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>229365</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FADS103</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>311996</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FADS104</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>180864</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FADS104</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>258460</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FADS104</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>267234</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FADS105</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>261413</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FADS105</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>220586</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>FADS105</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>258987</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>FADS106</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>252896</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FADS106</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>227604</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FADS107</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>235207</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FADS108</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>260041</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FADS108</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>18</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>228582</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FADS109</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>277329</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FADS109</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>18</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>261063</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FADS110</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>178717</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FADS110</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>15</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>192658</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FADS111</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>238967</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FADS111</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>218175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FADS111</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>259807</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FADS112</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>15</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>229297</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FADS116</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>244578</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FADS116</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>15</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>228350</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>FADS117</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>9</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>106490</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>FADS118</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>12</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>181114</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>FADS118</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>15</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>169472</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>FADS120</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>9</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>261638</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>FADS120</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>12</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>261267</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>FADS120</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>18</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>288510</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>FADS121</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>135135</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>FADS121</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>12</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>86603</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>FADS121</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>15</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>125556</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>FADS123</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>260193</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>FADS123</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>12</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>274982</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>FADS123</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>18</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>263713</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>FADS124</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>192442</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>FADS126</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>9</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>189893</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>FADS126</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>12</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>146569</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>FADS126</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>15</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>164148</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>FADS126</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>18</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>178911</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>FADS127</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>256705</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>FADS127</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>12</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>278294</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>FADS128</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>9</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>257985</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>FADS128</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>12</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>267714</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>FADS130</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>9</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>261565</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>FADS130</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>12</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>293746</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>FADS132</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>9</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>281647</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>FADS132</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>12</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>231861</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>FADS133</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>9</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>258909</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>FADS133</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>12</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>237416</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>FADS134</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>12</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>203253</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>FADS134</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>15</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>172713</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>FADS134</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>18</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>166181</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>FADS135</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>12</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>237690</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>FADS136</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>12</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>218457</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>FADS137</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>12</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>268847</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>FADS138</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>12</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>237817</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>FADS139</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>9</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>257789</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>FADS139</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>12</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>231292</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>FADS139</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>15</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>239515</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>FADS139</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>18</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>246915</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>FADS140</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>9</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>205125</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>FADS140</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>12</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>179533</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>FADS140</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>18</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>183400</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>FADS142</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>9</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>214590</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>FADS143</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>12</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>239108</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>FADS143</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>15</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>223872</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>FADS143</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>18</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>217171</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>FADS144</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>9</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>183473</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>FADS144</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>12</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>199186</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>FADS145</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>12</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>123867</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>FADS145</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>100068</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>FADS146</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>9</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>246070</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>FADS148</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>9</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>197407</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>FADS148</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>12</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>192031</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>FADS150</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>9</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>173699</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>FADS150</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>18</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>160379</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>FADS151</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>9</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>185615</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>FADS151</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>12</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>154498</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>FADS151</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>15</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>140971</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>FADS152</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>9</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>286308</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>FADS152</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>12</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>285063</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>FADS152</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>15</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>218330</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>FADS152</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>18</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>223594</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>FADS153</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>9</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>239273</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>FADS154</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>12</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>209552</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>FADS155</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>9</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>224672</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>FADS156</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>9</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>244677</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>FADS156</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>12</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>238641</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>FADS156</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>18</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>252943</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>FADS157</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>9</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>233564</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>FADS157</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>12</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>233825</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>FADS158</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>9</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>162962</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>FADS158</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>12</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>192274</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>FADS158</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>15</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>204606</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>FADS158</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>18</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>224457</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>FADS159</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>12</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>245012</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>FADS160</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>9</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>381417</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>FADS160</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>12</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>263642</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>FADS160</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>18</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>308143</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>FADS163</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>9</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>161474</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>FADS164</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>9</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>196007</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>FADS165</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>12</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>305322</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>FADS165</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>18</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>333965</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>FADS166</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>9</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>189039</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>FADS166</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>12</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>214555</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>FADS166</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>15</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>214784</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>FADS167</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>6</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>226208</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>FADS167</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>9</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>205180</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>FADS167</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>12</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>214436</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>FADS167</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>15</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>207066</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>FADS167</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>18</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>225109</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>FADS168</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>9</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>232220</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>FADS169</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>9</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>127381</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>FADS169</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>12</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>134870</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
